--- a/database/excel_files/user_database.xlsx
+++ b/database/excel_files/user_database.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Git Projects\OutPatient\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Git Projects\OutPatient\database\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plan" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="172">
   <si>
     <t>pid</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>notes</t>
-  </si>
-  <si>
-    <t>taskType</t>
   </si>
   <si>
     <t>des</t>
@@ -841,7 +838,7 @@
     <t>1418276837000</t>
   </si>
   <si>
-    <t>plan_type</t>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -945,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -974,15 +971,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1001,9 +991,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1295,13 +1282,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -1313,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1324,7 +1312,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="38"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -1345,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1356,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1367,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1389,7 +1377,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1440,20 +1428,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="45" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="63.5703125" style="18" customWidth="1"/>
-    <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="17.28515625" style="18"/>
+    <col min="1" max="3" width="8.7109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="45" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="63.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="15" style="16" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="17.28515625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1464,1006 +1451,1056 @@
         <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7">
+        <v>3</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>38</v>
+      </c>
+      <c r="B39" s="16">
+        <v>4</v>
+      </c>
+      <c r="C39" s="16">
+        <v>2</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>39</v>
+      </c>
+      <c r="B40" s="16">
+        <v>4</v>
+      </c>
+      <c r="C40" s="16">
+        <v>2</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>40</v>
+      </c>
+      <c r="B41" s="16">
+        <v>4</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>41</v>
+      </c>
+      <c r="B42" s="16">
+        <v>5</v>
+      </c>
+      <c r="C42" s="16">
+        <v>2</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>42</v>
+      </c>
+      <c r="B43" s="16">
+        <v>5</v>
+      </c>
+      <c r="C43" s="16">
+        <v>2</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>43</v>
+      </c>
+      <c r="B44" s="16">
+        <v>5</v>
+      </c>
+      <c r="C44" s="16">
+        <v>2</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>44</v>
+      </c>
+      <c r="B45" s="16">
+        <v>5</v>
+      </c>
+      <c r="C45" s="16">
+        <v>2</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>45</v>
+      </c>
+      <c r="B46" s="16">
+        <v>5</v>
+      </c>
+      <c r="C46" s="16">
+        <v>2</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>46</v>
+      </c>
+      <c r="B47" s="16">
+        <v>5</v>
+      </c>
+      <c r="C47" s="16">
+        <v>2</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>47</v>
+      </c>
+      <c r="B48" s="16">
+        <v>5</v>
+      </c>
+      <c r="C48" s="16">
+        <v>2</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>48</v>
+      </c>
+      <c r="B49" s="16">
+        <v>5</v>
+      </c>
+      <c r="C49" s="16">
+        <v>2</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>49</v>
+      </c>
+      <c r="B50" s="16">
+        <v>5</v>
+      </c>
+      <c r="C50" s="16">
+        <v>2</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>50</v>
+      </c>
+      <c r="B51" s="16">
+        <v>5</v>
+      </c>
+      <c r="C51" s="16">
+        <v>2</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>51</v>
+      </c>
+      <c r="B52" s="16">
+        <v>5</v>
+      </c>
+      <c r="C52" s="16">
+        <v>2</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>52</v>
+      </c>
+      <c r="B53" s="16">
+        <v>6</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>53</v>
+      </c>
+      <c r="B54" s="16">
+        <v>6</v>
+      </c>
+      <c r="C54" s="16">
+        <v>2</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="16">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="F54" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="19">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9" t="s">
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>54</v>
+      </c>
+      <c r="B55" s="16">
+        <v>6</v>
+      </c>
+      <c r="C55" s="16">
+        <v>2</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="19">
-        <v>2</v>
-      </c>
-      <c r="F4" s="9" t="s">
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>55</v>
+      </c>
+      <c r="B56" s="16">
+        <v>6</v>
+      </c>
+      <c r="C56" s="16">
+        <v>1</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="F56" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="19">
-        <v>2</v>
-      </c>
-      <c r="F5" s="9" t="s">
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>56</v>
+      </c>
+      <c r="B57" s="16">
+        <v>6</v>
+      </c>
+      <c r="C57" s="16">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>57</v>
+      </c>
+      <c r="B58" s="16">
+        <v>6</v>
+      </c>
+      <c r="C58" s="16">
+        <v>2</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>58</v>
+      </c>
+      <c r="B59" s="16">
+        <v>6</v>
+      </c>
+      <c r="C59" s="16">
+        <v>2</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>59</v>
+      </c>
+      <c r="B60" s="16">
+        <v>6</v>
+      </c>
+      <c r="C60" s="16">
+        <v>2</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>60</v>
+      </c>
+      <c r="B61" s="16">
+        <v>6</v>
+      </c>
+      <c r="C61" s="16">
+        <v>2</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16">
+        <v>6</v>
+      </c>
+      <c r="C62" s="16">
+        <v>3</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="19">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="18">
-        <v>2</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="18">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>9</v>
-      </c>
-      <c r="B10" s="19">
-        <v>2</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="19">
-        <v>2</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19">
-        <v>2</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="19">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="19">
-        <v>3</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>13</v>
-      </c>
-      <c r="B14" s="19">
-        <v>2</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="18">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19">
-        <v>2</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="18">
-        <v>2</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>15</v>
-      </c>
-      <c r="B16" s="19">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>16</v>
-      </c>
-      <c r="B17" s="19">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="18">
-        <v>3</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>17</v>
-      </c>
-      <c r="B18" s="19">
-        <v>2</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="18">
-        <v>3</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="20">
-        <v>3</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>19</v>
-      </c>
-      <c r="B20" s="20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>20</v>
-      </c>
-      <c r="B21" s="20">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>21</v>
-      </c>
-      <c r="B22" s="20">
-        <v>3</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20">
-        <v>3</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20">
-        <v>3</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20">
-        <v>3</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="18">
-        <v>2</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20">
-        <v>3</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>26</v>
-      </c>
-      <c r="B27" s="20">
-        <v>3</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="18">
-        <v>2</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <v>27</v>
-      </c>
-      <c r="B28" s="20">
-        <v>3</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="18">
-        <v>2</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20">
-        <v>3</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="18">
-        <v>2</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>29</v>
-      </c>
-      <c r="B30" s="19">
-        <v>3</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="18">
-        <v>2</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20">
-        <v>3</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20">
-        <v>3</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20">
-        <v>3</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
-        <v>33</v>
-      </c>
-      <c r="B34" s="18">
-        <v>4</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
-        <v>34</v>
-      </c>
-      <c r="B35" s="18">
-        <v>4</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
-        <v>35</v>
-      </c>
-      <c r="B36" s="18">
-        <v>4</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="18">
-        <v>2</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
-        <v>36</v>
-      </c>
-      <c r="B37" s="18">
-        <v>4</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>37</v>
-      </c>
-      <c r="B38" s="18">
-        <v>4</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
-        <v>38</v>
-      </c>
-      <c r="B39" s="18">
-        <v>4</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="18">
-        <v>2</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
-        <v>39</v>
-      </c>
-      <c r="B40" s="18">
-        <v>4</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="18">
-        <v>2</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
-        <v>40</v>
-      </c>
-      <c r="B41" s="18">
-        <v>4</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>41</v>
-      </c>
-      <c r="B42" s="18">
-        <v>5</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="18">
-        <v>2</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>42</v>
-      </c>
-      <c r="B43" s="18">
-        <v>5</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="18">
-        <v>2</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
-        <v>43</v>
-      </c>
-      <c r="B44" s="18">
-        <v>5</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="18">
-        <v>2</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
-        <v>44</v>
-      </c>
-      <c r="B45" s="18">
-        <v>5</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="18">
-        <v>2</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>45</v>
-      </c>
-      <c r="B46" s="18">
-        <v>5</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E46" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
-        <v>46</v>
-      </c>
-      <c r="B47" s="18">
-        <v>5</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" s="18">
-        <v>2</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>47</v>
-      </c>
-      <c r="B48" s="18">
-        <v>5</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
-        <v>48</v>
-      </c>
-      <c r="B49" s="18">
-        <v>5</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E49" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
-        <v>49</v>
-      </c>
-      <c r="B50" s="18">
-        <v>5</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E50" s="18">
-        <v>2</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
-        <v>50</v>
-      </c>
-      <c r="B51" s="18">
-        <v>5</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="18">
-        <v>2</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
-        <v>51</v>
-      </c>
-      <c r="B52" s="18">
-        <v>5</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
-        <v>52</v>
-      </c>
-      <c r="B53" s="18">
-        <v>6</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E53" s="18">
-        <v>1</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
-        <v>53</v>
-      </c>
-      <c r="B54" s="18">
-        <v>6</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="18">
-        <v>2</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19">
-        <v>54</v>
-      </c>
-      <c r="B55" s="18">
-        <v>6</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="18">
-        <v>2</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19">
-        <v>55</v>
-      </c>
-      <c r="B56" s="18">
-        <v>6</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="18">
-        <v>1</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19">
-        <v>56</v>
-      </c>
-      <c r="B57" s="18">
-        <v>6</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E57" s="18">
-        <v>2</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19">
-        <v>57</v>
-      </c>
-      <c r="B58" s="18">
-        <v>6</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="18">
-        <v>2</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19">
-        <v>58</v>
-      </c>
-      <c r="B59" s="18">
-        <v>6</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="18">
-        <v>2</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="19">
-        <v>59</v>
-      </c>
-      <c r="B60" s="18">
-        <v>6</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" s="18">
-        <v>2</v>
-      </c>
-      <c r="F60" s="29" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="19">
-        <v>60</v>
-      </c>
-      <c r="B61" s="18">
-        <v>6</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="19">
-        <v>61</v>
-      </c>
-      <c r="B62" s="18">
-        <v>6</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="19">
-        <v>62</v>
-      </c>
-      <c r="B63" s="18">
-        <v>6</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" s="18">
-        <v>2</v>
+      <c r="C63" s="16">
+        <v>2</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2483,36 +2520,36 @@
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16" style="24" customWidth="1"/>
+    <col min="3" max="3" width="16" style="21" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="21" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -2521,13 +2558,13 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>90</v>
+      <c r="C2" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
@@ -2538,14 +2575,14 @@
       <c r="B3" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="26" t="s">
-        <v>90</v>
+      <c r="C3" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>89</v>
+      <c r="E3" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -2561,14 +2598,14 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="26" t="s">
-        <v>90</v>
+      <c r="C4" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>89</v>
+      <c r="E4" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -2584,14 +2621,14 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>90</v>
+      <c r="C5" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>89</v>
+      <c r="E5" s="20" t="s">
+        <v>88</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -2607,8 +2644,8 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>90</v>
+      <c r="C6" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2623,8 +2660,8 @@
       <c r="B7">
         <v>9</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>90</v>
+      <c r="C7" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2639,14 +2676,14 @@
       <c r="B8">
         <v>11</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>90</v>
+      <c r="C8" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>89</v>
+      <c r="E8" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -2662,14 +2699,14 @@
       <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>90</v>
+      <c r="C9" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>89</v>
+      <c r="E9" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -2685,14 +2722,14 @@
       <c r="B10">
         <v>14</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>90</v>
+      <c r="C10" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>89</v>
+      <c r="E10" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -2708,14 +2745,14 @@
       <c r="B11">
         <v>16</v>
       </c>
-      <c r="C11" s="26" t="s">
-        <v>90</v>
+      <c r="C11" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>89</v>
+      <c r="E11" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -2731,8 +2768,8 @@
       <c r="B12">
         <v>17</v>
       </c>
-      <c r="C12" s="26" t="s">
-        <v>89</v>
+      <c r="C12" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2747,8 +2784,8 @@
       <c r="B13">
         <v>18</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>92</v>
+      <c r="C13" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2763,14 +2800,14 @@
       <c r="B14">
         <v>19</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>92</v>
+      <c r="C14" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>89</v>
+      <c r="E14" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -2786,14 +2823,14 @@
       <c r="B15">
         <v>20</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>92</v>
+      <c r="C15" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>89</v>
+      <c r="E15" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2809,14 +2846,14 @@
       <c r="B16">
         <v>21</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>92</v>
+      <c r="C16" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>89</v>
+      <c r="E16" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2832,14 +2869,14 @@
       <c r="B17">
         <v>22</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>92</v>
+      <c r="C17" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>89</v>
+      <c r="E17" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2855,14 +2892,14 @@
       <c r="B18">
         <v>24</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>92</v>
+      <c r="C18" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>89</v>
+      <c r="E18" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2878,14 +2915,14 @@
       <c r="B19">
         <v>25</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>92</v>
+      <c r="C19" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>89</v>
+      <c r="E19" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2901,14 +2938,14 @@
       <c r="B20">
         <v>26</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>92</v>
+      <c r="C20" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>89</v>
+      <c r="E20" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2924,14 +2961,14 @@
       <c r="B21">
         <v>27</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>92</v>
+      <c r="C21" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>89</v>
+      <c r="E21" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -2947,14 +2984,14 @@
       <c r="B22">
         <v>28</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>92</v>
+      <c r="C22" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>89</v>
+      <c r="E22" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F22" s="12">
         <v>1</v>
@@ -2970,14 +3007,14 @@
       <c r="B23">
         <v>30</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>92</v>
+      <c r="C23" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>89</v>
+      <c r="E23" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F23" s="12">
         <v>5</v>
@@ -2993,14 +3030,14 @@
       <c r="B24">
         <v>31</v>
       </c>
-      <c r="C24" s="26" t="s">
-        <v>92</v>
+      <c r="C24" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>89</v>
+      <c r="E24" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F24" s="12">
         <v>5</v>
@@ -3016,14 +3053,14 @@
       <c r="B25">
         <v>32</v>
       </c>
-      <c r="C25" s="26" t="s">
-        <v>92</v>
+      <c r="C25" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>89</v>
+      <c r="E25" s="21" t="s">
+        <v>88</v>
       </c>
       <c r="F25" s="12">
         <v>7</v>
@@ -3036,17 +3073,17 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="17">
         <v>35</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F26" s="12">
         <v>1</v>
@@ -3059,11 +3096,11 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="17">
         <v>36</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>170</v>
+      <c r="C27" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3073,11 +3110,11 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="17">
         <v>37</v>
       </c>
-      <c r="C28" s="37" t="s">
-        <v>170</v>
+      <c r="C28" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3087,17 +3124,17 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="17">
         <v>38</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F29" s="12">
         <v>1</v>
@@ -3110,17 +3147,17 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="17">
         <v>39</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F30" s="12">
         <v>1</v>
@@ -3133,17 +3170,17 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="17">
         <v>40</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F31" s="12">
         <v>5</v>
@@ -3156,17 +3193,17 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="17">
         <v>41</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F32" s="12">
         <v>1</v>
@@ -3179,17 +3216,17 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="17">
         <v>42</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F33" s="12">
         <v>1</v>
@@ -3202,11 +3239,11 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="17">
         <v>43</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>170</v>
+      <c r="C34" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3216,17 +3253,17 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="17">
         <v>44</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F35" s="12">
         <v>1</v>
@@ -3239,17 +3276,17 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="17">
         <v>45</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F36" s="12">
         <v>1</v>
@@ -3262,17 +3299,17 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="17">
         <v>46</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F37" s="12">
         <v>1</v>
@@ -3285,17 +3322,17 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="17">
         <v>47</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F38" s="12">
         <v>1</v>
@@ -3308,17 +3345,17 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="17">
         <v>48</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F39" s="12">
         <v>1</v>
@@ -3331,17 +3368,17 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="17">
         <v>49</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F40" s="12">
         <v>1</v>
@@ -3354,17 +3391,17 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="17">
         <v>50</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F41" s="12">
         <v>1</v>
@@ -3377,17 +3414,17 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="17">
         <v>51</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F42" s="12">
         <v>1</v>
@@ -3400,11 +3437,11 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="17">
         <v>52</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>170</v>
+      <c r="C43" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3414,17 +3451,17 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="17">
         <v>53</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F44" s="12">
         <v>1</v>
@@ -3437,17 +3474,17 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="17">
         <v>54</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F45" s="12">
         <v>1</v>
@@ -3460,17 +3497,17 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="17">
         <v>55</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>171</v>
       </c>
       <c r="F46" s="12">
         <v>1</v>
@@ -3504,18 +3541,18 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -3525,10 +3562,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -3540,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -3555,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -3570,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -3585,10 +3622,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -3600,10 +3637,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -3615,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -3630,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -3645,10 +3682,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -3660,10 +3697,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -3675,10 +3712,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -3690,10 +3727,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -3705,10 +3742,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -3720,10 +3757,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -3735,10 +3772,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -3750,10 +3787,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>75</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -3765,10 +3802,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -3780,10 +3817,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -3795,10 +3832,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E20" s="1"/>
     </row>
@@ -3810,10 +3847,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E21" s="1"/>
     </row>
@@ -3825,10 +3862,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1"/>
     </row>
@@ -3840,10 +3877,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1"/>
     </row>
@@ -3855,10 +3892,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -3869,11 +3906,11 @@
       <c r="B25" s="13">
         <v>4</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3883,11 +3920,11 @@
       <c r="B26" s="13">
         <v>4</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="27" t="s">
         <v>138</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3897,11 +3934,11 @@
       <c r="B27" s="13">
         <v>4</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="C27" s="25" t="s">
         <v>133</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3911,11 +3948,11 @@
       <c r="B28" s="13">
         <v>4</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>135</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3926,10 +3963,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>137</v>
+        <v>76</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3939,11 +3976,11 @@
       <c r="B30" s="13">
         <v>4</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>140</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3954,80 +3991,80 @@
         <v>4</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="31">
         <v>5</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="31">
         <v>5</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="31">
         <v>5</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="36" t="s">
         <v>164</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="31">
         <v>5</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="36" t="s">
         <v>162</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="31">
         <v>5</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="34" t="s">
         <v>160</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4037,11 +4074,11 @@
       <c r="B37" s="13">
         <v>6</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4052,10 +4089,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4066,10 +4103,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4080,10 +4117,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="30" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4094,10 +4131,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>112</v>
+        <v>109</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
